--- a/linux/record/bill.xlsx
+++ b/linux/record/bill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,46 +469,104 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hd10</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>hd01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12/06/2022</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Account</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tran Cao Trung</t>
+          <t>Nguyen Xuan Hoa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hd02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13/07/2002</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tran Van Hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>hd03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24/07/2022</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hoa Xuan Tieu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>hd10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Account</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cao Van Giau</t>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tran Cao Trung</t>
         </is>
       </c>
     </row>
